--- a/NformTester/NformTester/keywordscripts/TST489_CheckGUIFunctionalityConfigureTrendingScreen.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST489_CheckGUIFunctionalityConfigureTrendingScreen.xlsx
@@ -1244,7 +1244,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7211" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7221" uniqueCount="842">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3796,6 +3796,14 @@
   </si>
   <si>
     <t>$SNMPdevice_0$</t>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4030,7 +4038,91 @@
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4349,10 +4441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O68"/>
+  <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4558,43 +4650,33 @@
         <v>55</v>
       </c>
       <c r="B7" s="4">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C7" s="5">
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>33</v>
+        <v>71</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>839</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>838</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="17"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="15">
+    <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
         <v>46</v>
       </c>
@@ -4602,19 +4684,25 @@
       <c r="C8" s="5">
         <v>7</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="D8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="7"/>
+      <c r="N8" s="17"/>
       <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:15">
@@ -4628,24 +4716,22 @@
         <v>8</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>71</v>
+        <v>840</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>1</v>
-      </c>
+        <v>841</v>
+      </c>
+      <c r="F9" s="11">
+        <v>2</v>
+      </c>
+      <c r="G9" s="5"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="7"/>
+      <c r="N9" s="17"/>
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15">
@@ -4655,27 +4741,37 @@
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>8</v>
+        <v>77</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="N10" s="7"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" ht="15">
       <c r="A11" s="3" t="s">
         <v>58</v>
       </c>
@@ -4683,22 +4779,14 @@
       <c r="C11" s="5">
         <v>10</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>838</v>
-      </c>
-      <c r="I11" s="5"/>
+      <c r="D11" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -4717,17 +4805,17 @@
       <c r="D12" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>33</v>
+      <c r="E12" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>1</v>
       </c>
       <c r="H12" s="11"/>
-      <c r="I12" s="5"/>
+      <c r="I12" s="11"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -4746,11 +4834,11 @@
       <c r="D13" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>29</v>
+      <c r="E13" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>1</v>
@@ -4775,17 +4863,19 @@
       <c r="D14" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>31</v>
+      <c r="E14" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+        <v>11</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -4804,17 +4894,17 @@
       <c r="D15" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>31</v>
+      <c r="E15" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>1</v>
       </c>
       <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -4837,7 +4927,7 @@
         <v>29</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>1</v>
@@ -4862,11 +4952,11 @@
       <c r="D17" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>33</v>
+      <c r="E17" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>1</v>
@@ -4889,17 +4979,19 @@
         <v>17</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="5">
-        <v>2</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
@@ -4907,7 +4999,7 @@
       <c r="N18" s="7"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="15">
+    <row r="19" spans="1:15">
       <c r="A19" s="3" t="s">
         <v>67</v>
       </c>
@@ -4917,13 +5009,19 @@
       <c r="C19" s="5">
         <v>18</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="D19" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="11"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -4943,11 +5041,11 @@
       <c r="D20" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>8</v>
+      <c r="E20" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>1</v>
@@ -4970,23 +5068,17 @@
         <v>20</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="11">
+        <v>70</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="5">
         <v>2</v>
       </c>
-      <c r="I21" s="5" t="s">
-        <v>838</v>
-      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
@@ -4994,23 +5086,17 @@
       <c r="N21" s="7"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" ht="15">
       <c r="C22" s="5">
         <v>21</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="11"/>
+      <c r="D22" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -5030,13 +5116,13 @@
         <v>8</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>1</v>
       </c>
       <c r="H23" s="11"/>
-      <c r="I23" s="5"/>
+      <c r="I23" s="11"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
@@ -5052,19 +5138,19 @@
         <v>71</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H24" s="11">
         <v>2</v>
       </c>
-      <c r="I24" s="11">
-        <v>1</v>
+      <c r="I24" s="5" t="s">
+        <v>838</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -5081,20 +5167,16 @@
         <v>71</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="I25" s="11" t="b">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H25" s="11"/>
+      <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
@@ -5102,18 +5184,24 @@
       <c r="N25" s="7"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" ht="15">
+    <row r="26" spans="1:15">
       <c r="C26" s="5">
         <v>25</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="D26" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
+      <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
@@ -5132,15 +5220,17 @@
         <v>31</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="I27" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="H27" s="11">
+        <v>2</v>
+      </c>
+      <c r="I27" s="11">
+        <v>1</v>
+      </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
@@ -5159,15 +5249,17 @@
         <v>31</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="I28" s="11"/>
+        <v>101</v>
+      </c>
+      <c r="I28" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
@@ -5175,22 +5267,16 @@
       <c r="N28" s="7"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" ht="15">
       <c r="C29" s="5">
         <v>28</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="D29" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" s="5"/>
@@ -5200,17 +5286,25 @@
       <c r="N29" s="7"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" ht="15">
+    <row r="30" spans="1:15">
       <c r="C30" s="5">
         <v>29</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="11"/>
+      <c r="D30" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>88</v>
+      </c>
       <c r="I30" s="11"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
@@ -5219,17 +5313,25 @@
       <c r="N30" s="7"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="15">
+    <row r="31" spans="1:15">
       <c r="C31" s="5">
         <v>30</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="11"/>
+      <c r="D31" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>94</v>
+      </c>
       <c r="I31" s="11"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
@@ -5246,13 +5348,13 @@
         <v>71</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -5263,28 +5365,18 @@
       <c r="N32" s="7"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="3:15">
+    <row r="33" spans="3:15" ht="15">
       <c r="C33" s="5">
         <v>32</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="I33" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="D33" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -5292,25 +5384,17 @@
       <c r="N33" s="7"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="3:15">
+    <row r="34" spans="3:15" ht="15">
       <c r="C34" s="5">
         <v>33</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>88</v>
-      </c>
+      <c r="D34" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="11"/>
       <c r="I34" s="11"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
@@ -5330,14 +5414,12 @@
         <v>8</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>102</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H35" s="11"/>
       <c r="I35" s="11"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
@@ -5357,15 +5439,17 @@
         <v>8</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="I36" s="11"/>
+        <v>90</v>
+      </c>
+      <c r="I36" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
@@ -5384,12 +5468,14 @@
         <v>8</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H37" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>88</v>
+      </c>
       <c r="I37" s="11"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
@@ -5398,17 +5484,25 @@
       <c r="N37" s="7"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="3:15" ht="15">
+    <row r="38" spans="3:15">
       <c r="C38" s="5">
         <v>37</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="11"/>
+      <c r="D38" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>102</v>
+      </c>
       <c r="I38" s="11"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
@@ -5428,20 +5522,16 @@
         <v>8</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>833</v>
-      </c>
-      <c r="J39" s="5">
-        <v>15</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="I39" s="11"/>
+      <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
@@ -5459,20 +5549,14 @@
         <v>8</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>833</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>96</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
@@ -5484,7 +5568,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="5"/>
@@ -5509,14 +5593,20 @@
         <v>8</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>833</v>
+      </c>
+      <c r="J42" s="5">
+        <v>15</v>
+      </c>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
@@ -5534,43 +5624,37 @@
         <v>8</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="I43" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>833</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>96</v>
+      </c>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="7"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="3:15">
+    <row r="44" spans="3:15" ht="15">
       <c r="C44" s="5">
         <v>43</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>88</v>
-      </c>
+      <c r="D44" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E44" s="11"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="11"/>
       <c r="I44" s="11"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
@@ -5590,14 +5674,12 @@
         <v>8</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>98</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H45" s="11"/>
       <c r="I45" s="11"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
@@ -5617,15 +5699,17 @@
         <v>8</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="I46" s="11"/>
+        <v>90</v>
+      </c>
+      <c r="I46" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
@@ -5644,12 +5728,14 @@
         <v>8</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H47" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>88</v>
+      </c>
       <c r="I47" s="11"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
@@ -5658,17 +5744,25 @@
       <c r="N47" s="7"/>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="3:15" ht="15">
+    <row r="48" spans="3:15">
       <c r="C48" s="5">
         <v>47</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E48" s="11"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="11"/>
+      <c r="D48" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>98</v>
+      </c>
       <c r="I48" s="11"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
@@ -5688,20 +5782,16 @@
         <v>8</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>833</v>
-      </c>
-      <c r="J49" s="5">
-        <v>2</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="I49" s="11"/>
+      <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
@@ -5719,20 +5809,14 @@
         <v>8</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>833</v>
-      </c>
-      <c r="J50" s="11" t="s">
-        <v>96</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
@@ -5744,7 +5828,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="5"/>
@@ -5758,19 +5842,31 @@
       <c r="N51" s="7"/>
       <c r="O51" s="2"/>
     </row>
-    <row r="52" spans="3:15" ht="15">
+    <row r="52" spans="3:15">
       <c r="C52" s="5">
         <v>51</v>
       </c>
-      <c r="D52" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E52" s="11"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
+      <c r="D52" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>833</v>
+      </c>
+      <c r="J52" s="5">
+        <v>2</v>
+      </c>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
@@ -5782,40 +5878,42 @@
         <v>52</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F53" s="5">
-        <v>2</v>
-      </c>
-      <c r="G53" s="5"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>833</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>96</v>
+      </c>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="7"/>
       <c r="O53" s="2"/>
     </row>
-    <row r="54" spans="3:15">
+    <row r="54" spans="3:15" ht="15">
       <c r="C54" s="5">
         <v>53</v>
       </c>
-      <c r="D54" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="D54" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E54" s="11"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
       <c r="J54" s="5"/>
@@ -5825,24 +5923,18 @@
       <c r="N54" s="7"/>
       <c r="O54" s="2"/>
     </row>
-    <row r="55" spans="3:15">
+    <row r="55" spans="3:15" ht="15">
       <c r="C55" s="5">
         <v>54</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="D55" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" s="11"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
       <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
+      <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
@@ -5855,51 +5947,47 @@
         <v>55</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G56" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F56" s="5">
         <v>2</v>
       </c>
-      <c r="H56" s="5" t="s">
-        <v>84</v>
-      </c>
+      <c r="G56" s="5"/>
+      <c r="H56" s="11"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
-      <c r="N56" s="17"/>
+      <c r="N56" s="7"/>
       <c r="O56" s="2"/>
     </row>
-    <row r="57" spans="3:15" ht="14.25">
+    <row r="57" spans="3:15">
       <c r="C57" s="5">
         <v>56</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H57" s="18"/>
-      <c r="I57" s="5"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
-      <c r="N57" s="17"/>
+      <c r="N57" s="7"/>
       <c r="O57" s="2"/>
     </row>
     <row r="58" spans="3:15">
@@ -5907,24 +5995,24 @@
         <v>57</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>36</v>
+        <v>71</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>1</v>
       </c>
       <c r="H58" s="11"/>
-      <c r="I58" s="5"/>
+      <c r="I58" s="11"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
-      <c r="N58" s="17"/>
+      <c r="N58" s="7"/>
       <c r="O58" s="2"/>
     </row>
     <row r="59" spans="3:15">
@@ -5938,58 +6026,90 @@
         <v>83</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
-      <c r="N59" s="7"/>
+      <c r="N59" s="17"/>
       <c r="O59" s="2"/>
     </row>
-    <row r="60" spans="3:15">
-      <c r="C60" s="5"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
+    <row r="60" spans="3:15" ht="14.25">
+      <c r="C60" s="5">
+        <v>59</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60" s="18"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
-      <c r="N60" s="7"/>
+      <c r="N60" s="17"/>
       <c r="O60" s="2"/>
     </row>
     <row r="61" spans="3:15">
-      <c r="C61" s="16"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
+      <c r="C61" s="5">
+        <v>60</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="H61" s="11"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
-      <c r="N61" s="7"/>
+      <c r="N61" s="17"/>
       <c r="O61" s="2"/>
     </row>
     <row r="62" spans="3:15">
-      <c r="C62" s="16"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
+      <c r="C62" s="5">
+        <v>61</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
@@ -6000,10 +6120,10 @@
     <row r="63" spans="3:15">
       <c r="C63" s="16"/>
       <c r="D63" s="8"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
@@ -6016,8 +6136,8 @@
       <c r="C64" s="16"/>
       <c r="D64" s="8"/>
       <c r="E64" s="11"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
       <c r="H64" s="11"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
@@ -6045,10 +6165,10 @@
     <row r="66" spans="3:15">
       <c r="C66" s="16"/>
       <c r="D66" s="8"/>
-      <c r="E66" s="11"/>
+      <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
-      <c r="H66" s="11"/>
+      <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
@@ -6061,9 +6181,9 @@
       <c r="C67" s="16"/>
       <c r="D67" s="8"/>
       <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="11"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
@@ -6074,36 +6194,97 @@
     </row>
     <row r="68" spans="3:15">
       <c r="C68" s="16"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="7"/>
+    </row>
+    <row r="69" spans="3:15">
+      <c r="D69" s="8"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="7"/>
+    </row>
+    <row r="70" spans="3:15">
+      <c r="D70" s="8"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N67">
-    <cfRule type="cellIs" dxfId="3" priority="7" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N70">
+    <cfRule type="cellIs" dxfId="15" priority="13" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N56:N58">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N59:N61">
+    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7:N9">
+    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7:N9">
+    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7:N9">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D62:D63 D54:D55 D60 D18 D7 D3:D4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D65:D66 D57:D58 D63 D21 D10 D3:D4">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G57:G67 G2:G55">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G60:G70 G2:G58">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F8 F10:F70">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E70">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>

--- a/NformTester/NformTester/keywordscripts/TST489_CheckGUIFunctionalityConfigureTrendingScreen.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST489_CheckGUIFunctionalityConfigureTrendingScreen.xlsx
@@ -1244,7 +1244,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7221" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7225" uniqueCount="844">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3792,17 +3792,27 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$GXT_0$</t>
-  </si>
-  <si>
-    <t>$SNMPdevice_0$</t>
-  </si>
-  <si>
     <t>C</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Pause</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running Range</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_0_NAME$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equal</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4038,49 +4048,7 @@
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -4443,8 +4411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4457,6 +4425,7 @@
     <col min="7" max="7" width="16.125" customWidth="1"/>
     <col min="8" max="8" width="14.625" customWidth="1"/>
     <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -4625,7 +4594,7 @@
         <v>54</v>
       </c>
       <c r="B6" s="10">
-        <v>41079</v>
+        <v>41451</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
@@ -4678,9 +4647,9 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="4"/>
+        <v>840</v>
+      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="5">
         <v>7</v>
       </c>
@@ -4707,19 +4676,17 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>57</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="5">
         <v>8</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F9" s="11">
         <v>2</v>
@@ -4735,8 +4702,12 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="C10" s="5">
         <v>9</v>
       </c>
@@ -4754,10 +4725,10 @@
         <v>78</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>81</v>
@@ -4772,10 +4743,8 @@
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15" ht="15">
-      <c r="A11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="5">
         <v>10</v>
       </c>
@@ -4796,7 +4765,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="5">
@@ -4825,7 +4794,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="5">
@@ -4854,7 +4823,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="5">
@@ -4873,7 +4842,7 @@
         <v>11</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -4885,7 +4854,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="5">
@@ -4914,7 +4883,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="5">
@@ -4942,10 +4911,10 @@
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="15" t="s">
-        <v>65</v>
-      </c>
+      <c r="A17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="5">
         <v>16</v>
       </c>
@@ -4973,7 +4942,7 @@
     <row r="18" spans="1:15">
       <c r="A18" s="3"/>
       <c r="B18" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="5">
         <v>17</v>
@@ -5000,11 +4969,9 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="15" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C19" s="5">
         <v>18</v>
@@ -5032,9 +4999,11 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="15"/>
+        <v>67</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="C20" s="5">
         <v>19</v>
       </c>
@@ -5061,7 +5030,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="5">
@@ -5087,6 +5056,10 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="15">
+      <c r="A22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="15"/>
       <c r="C22" s="5">
         <v>21</v>
       </c>
@@ -5150,7 +5123,7 @@
         <v>2</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -5257,10 +5230,12 @@
       <c r="H28" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="I28" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" s="5"/>
+      <c r="I28" s="11" t="s">
+        <v>843</v>
+      </c>
+      <c r="J28" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
@@ -5447,10 +5422,12 @@
       <c r="H36" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="I36" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" s="5"/>
+      <c r="I36" s="11" t="s">
+        <v>843</v>
+      </c>
+      <c r="J36" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
@@ -5707,10 +5684,12 @@
       <c r="H46" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="I46" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" s="5"/>
+      <c r="I46" s="11" t="s">
+        <v>843</v>
+      </c>
+      <c r="J46" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
@@ -6235,42 +6214,42 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="N2:N70">
-    <cfRule type="cellIs" dxfId="15" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="13" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="14" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N59:N61">
-    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7:N9">
-    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7:N9">
-    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7:N9">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/NformTester/NformTester/keywordscripts/TST489_CheckGUIFunctionalityConfigureTrendingScreen.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST489_CheckGUIFunctionalityConfigureTrendingScreen.xlsx
@@ -4412,7 +4412,7 @@
   <dimension ref="A1:O70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
